--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_PAAD_G12C.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_PAAD_G12C.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="297">
   <si>
     <t>datasource</t>
   </si>
@@ -71,97 +71,838 @@
     <t>10</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>GO_Biological_Process_2018</t>
   </si>
   <si>
+    <t>WikiPathways_2019_Human</t>
+  </si>
+  <si>
+    <t>Panther_2016</t>
+  </si>
+  <si>
+    <t>KEGG_2019_Human</t>
+  </si>
+  <si>
     <t>KEA_2015</t>
   </si>
   <si>
+    <t>Transcription_Factor_PPIs</t>
+  </si>
+  <si>
+    <t>Reactome_2016</t>
+  </si>
+  <si>
     <t>PPI_Hub_Proteins</t>
   </si>
   <si>
-    <t>KEGG_2019_Human</t>
-  </si>
-  <si>
-    <t>WikiPathways_2019_Human</t>
-  </si>
-  <si>
-    <t>Transcription_Factor_PPIs</t>
+    <t>BioCarta_2016</t>
+  </si>
+  <si>
+    <t>response to caffeine (GO:0031000)</t>
+  </si>
+  <si>
+    <t>cellular response to purine-containing compound (GO:0071415)</t>
+  </si>
+  <si>
+    <t>response to muscle stretch (GO:0035994)</t>
+  </si>
+  <si>
+    <t>Cell-type Dependent Selectivity of CCK2R Signaling WP3679</t>
+  </si>
+  <si>
+    <t>Beta1 adrenergic receptor signaling pathway_Homo sapiens_P04377</t>
+  </si>
+  <si>
+    <t>cellular response to caffeine (GO:0071313)</t>
+  </si>
+  <si>
+    <t>Pathways Affected in Adenoid Cystic Carcinoma WP3651</t>
+  </si>
+  <si>
+    <t>Beta2 adrenergic receptor signaling pathway_Homo sapiens_P04378</t>
+  </si>
+  <si>
+    <t>cardiac left ventricle morphogenesis (GO:0003214)</t>
+  </si>
+  <si>
+    <t>Extracellular vesicle-mediated signaling in recipient cells WP2870</t>
+  </si>
+  <si>
+    <t>Circadian entrainment</t>
+  </si>
+  <si>
+    <t>cellular response to alkaloid (GO:0071312)</t>
+  </si>
+  <si>
+    <t>Wnt signaling pathway_Homo sapiens_P00057</t>
+  </si>
+  <si>
+    <t>Dilated cardiomyopathy (DCM)</t>
   </si>
   <si>
     <t>muscle fiber development (GO:0048747)</t>
   </si>
   <si>
+    <t>negative regulation of sequestering of calcium ion (GO:0051283)</t>
+  </si>
+  <si>
+    <t>release of sequestered calcium ion into cytosol (GO:0051209)</t>
+  </si>
+  <si>
+    <t>response to calcium ion (GO:0051592)</t>
+  </si>
+  <si>
+    <t>Apelin signaling pathway</t>
+  </si>
+  <si>
+    <t>Calcium Regulation in the Cardiac Cell WP536</t>
+  </si>
+  <si>
+    <t>Myometrial Relaxation and Contraction Pathways WP289</t>
+  </si>
+  <si>
+    <t>Hippo signaling pathway</t>
+  </si>
+  <si>
+    <t>Hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>cardiac muscle contraction (GO:0060048)</t>
+  </si>
+  <si>
+    <t>Oxytocin signaling pathway</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>Ectoderm Differentiation WP2858</t>
+  </si>
+  <si>
+    <t>Pathways in cancer</t>
+  </si>
+  <si>
+    <t>Mesodermal Commitment Pathway WP2857</t>
+  </si>
+  <si>
+    <t>calcium ion transmembrane import into cytosol (GO:0097553)</t>
+  </si>
+  <si>
+    <t>Calcium signaling pathway</t>
+  </si>
+  <si>
+    <t>Hypertrophic cardiomyopathy (HCM)</t>
+  </si>
+  <si>
+    <t>striated muscle hypertrophy (GO:0014897)</t>
+  </si>
+  <si>
+    <t>Transcriptional misregulation in cancer</t>
+  </si>
+  <si>
+    <t>release of sequestered calcium ion into cytosol by sarcoplasmic reticulum (GO:0014808)</t>
+  </si>
+  <si>
+    <t>Chromosomal and microsatellite instability in colorectal cancer  WP4216</t>
+  </si>
+  <si>
+    <t>Canonical and Non-Canonical TGF-B signaling WP3874</t>
+  </si>
+  <si>
+    <t>release of sequestered calcium ion into cytosol by endoplasmic reticulum (GO:1903514)</t>
+  </si>
+  <si>
     <t>PRKG1</t>
   </si>
   <si>
-    <t>response to muscle stretch (GO:0035994)</t>
+    <t>heart contraction (GO:0060047)</t>
+  </si>
+  <si>
+    <t>positive regulation of alpha-beta T cell differentiation (GO:0046638)</t>
+  </si>
+  <si>
+    <t>cardiac muscle hypertrophy (GO:0003300)</t>
+  </si>
+  <si>
+    <t>PRKACA</t>
+  </si>
+  <si>
+    <t>sarcoplasmic reticulum calcium ion transport (GO:0070296)</t>
+  </si>
+  <si>
+    <t>SMAD3</t>
+  </si>
+  <si>
+    <t>Signaling by TGF-beta Receptor Complex in Cancer_Homo sapiens_R-HSA-3304351</t>
+  </si>
+  <si>
+    <t>SMAD2/3 MH2 Domain Mutants in Cancer_Homo sapiens_R-HSA-3315487</t>
+  </si>
+  <si>
+    <t>Ion homeostasis_Homo sapiens_R-HSA-5578775</t>
+  </si>
+  <si>
+    <t>Hypothesized Pathways in Pathogenesis of Cardiovascular Disease WP3668</t>
+  </si>
+  <si>
+    <t>cell-cell adhesion via plasma-membrane adhesion molecules (GO:0098742)</t>
+  </si>
+  <si>
+    <t>Loss of Function of SMAD2/3 in Cancer_Homo sapiens_R-HSA-3304349</t>
+  </si>
+  <si>
+    <t>striated muscle contraction (GO:0006941)</t>
+  </si>
+  <si>
+    <t>Tumor suppressor activity of SMARCB1 WP4204</t>
   </si>
   <si>
     <t>Signaling pathways regulating pluripotency of stem cells</t>
   </si>
   <si>
-    <t>PRKACA</t>
+    <t>Gastric cancer</t>
+  </si>
+  <si>
+    <t>regulation of cardiac conduction (GO:1903779)</t>
+  </si>
+  <si>
+    <t>Muscle contraction_Homo sapiens_R-HSA-397014</t>
+  </si>
+  <si>
+    <t>NFkB activation by Nontypeable Hemophilus influenzae_Homo sapiens_h_nthiPathway</t>
+  </si>
+  <si>
+    <t>Wnt signaling pathway</t>
+  </si>
+  <si>
+    <t>SMAD2</t>
   </si>
   <si>
     <t>Striated Muscle Contraction Pathway WP383</t>
   </si>
   <si>
-    <t>TCF7L2</t>
-  </si>
-  <si>
-    <t>Extracellular vesicle-mediated signaling in recipient cells WP2870</t>
+    <t>ALK in cardiac myocytes_Homo sapiens_h_alkPathway</t>
+  </si>
+  <si>
+    <t>Endoderm Differentiation WP2853</t>
+  </si>
+  <si>
+    <t>response to purine-containing compound (GO:0014074)</t>
+  </si>
+  <si>
+    <t>CTCF: First Multivalent Nuclear Factor_Homo sapiens_h_ctcfPathway</t>
+  </si>
+  <si>
+    <t>regulation of cardiac muscle contraction by regulation of the release of sequestered calcium ion (GO:0010881)</t>
+  </si>
+  <si>
+    <t>UBC</t>
+  </si>
+  <si>
+    <t>Long-term depression</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>CCKR signaling map ST_Homo sapiens_P06959</t>
+  </si>
+  <si>
+    <t>protein homooligomerization (GO:0051260)</t>
+  </si>
+  <si>
+    <t>Chronic myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Pancreatic cancer</t>
+  </si>
+  <si>
+    <t>cAMP signaling pathway</t>
+  </si>
+  <si>
+    <t>Arrhythmogenic right ventricular cardiomyopathy (ARVC)</t>
+  </si>
+  <si>
+    <t>divalent metal ion transport (GO:0070838)</t>
+  </si>
+  <si>
+    <t>outflow tract septum morphogenesis (GO:0003148)</t>
+  </si>
+  <si>
+    <t>Adherens junction</t>
+  </si>
+  <si>
+    <t>ventricular septum morphogenesis (GO:0060412)</t>
+  </si>
+  <si>
+    <t>regulation of release of sequestered calcium ion into cytosol by sarcoplasmic reticulum (GO:0010880)</t>
+  </si>
+  <si>
+    <t>regulation of cardiac muscle contraction by calcium ion signaling (GO:0010882)</t>
+  </si>
+  <si>
+    <t>regulation of heart contraction (GO:0008016)</t>
+  </si>
+  <si>
+    <t>response to alkaloid (GO:0043279)</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>3/9</t>
+  </si>
+  <si>
+    <t>3/13</t>
   </si>
   <si>
     <t>3/28</t>
   </si>
   <si>
-    <t>3/106</t>
-  </si>
-  <si>
-    <t>3/121</t>
+    <t>4/65</t>
+  </si>
+  <si>
+    <t>3/14</t>
+  </si>
+  <si>
+    <t>3/30</t>
+  </si>
+  <si>
+    <t>4/97</t>
+  </si>
+  <si>
+    <t>3/21</t>
+  </si>
+  <si>
+    <t>5/278</t>
+  </si>
+  <si>
+    <t>4/91</t>
+  </si>
+  <si>
+    <t>3/25</t>
+  </si>
+  <si>
+    <t>4/80</t>
+  </si>
+  <si>
+    <t>4/137</t>
+  </si>
+  <si>
+    <t>4/149</t>
+  </si>
+  <si>
+    <t>4/156</t>
+  </si>
+  <si>
+    <t>4/160</t>
+  </si>
+  <si>
+    <t>4/168</t>
+  </si>
+  <si>
+    <t>3/37</t>
+  </si>
+  <si>
+    <t>4/153</t>
+  </si>
+  <si>
+    <t>3/86</t>
+  </si>
+  <si>
+    <t>4/138</t>
+  </si>
+  <si>
+    <t>6/530</t>
+  </si>
+  <si>
+    <t>4/147</t>
+  </si>
+  <si>
+    <t>4/188</t>
+  </si>
+  <si>
+    <t>3/85</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>4/186</t>
+  </si>
+  <si>
+    <t>3/73</t>
+  </si>
+  <si>
+    <t>2/17</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>4/106</t>
+  </si>
+  <si>
+    <t>3/45</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>6/393</t>
   </si>
   <si>
     <t>2/9</t>
   </si>
   <si>
+    <t>6/375</t>
+  </si>
+  <si>
+    <t>4/121</t>
+  </si>
+  <si>
+    <t>3/51</t>
+  </si>
+  <si>
+    <t>2/25</t>
+  </si>
+  <si>
+    <t>4/143</t>
+  </si>
+  <si>
+    <t>6/440</t>
+  </si>
+  <si>
+    <t>3/62</t>
+  </si>
+  <si>
+    <t>2/31</t>
+  </si>
+  <si>
     <t>3/139</t>
   </si>
   <si>
-    <t>4/393</t>
-  </si>
-  <si>
-    <t>4/440</t>
+    <t>3/149</t>
+  </si>
+  <si>
+    <t>3/68</t>
+  </si>
+  <si>
+    <t>5/196</t>
+  </si>
+  <si>
+    <t>2/29</t>
+  </si>
+  <si>
+    <t>3/158</t>
+  </si>
+  <si>
+    <t>5/370</t>
   </si>
   <si>
     <t>2/38</t>
   </si>
   <si>
-    <t>2/37</t>
-  </si>
-  <si>
-    <t>2/30</t>
+    <t>2/27</t>
+  </si>
+  <si>
+    <t>3/141</t>
+  </si>
+  <si>
+    <t>2/23</t>
+  </si>
+  <si>
+    <t>6/540</t>
+  </si>
+  <si>
+    <t>2/60</t>
+  </si>
+  <si>
+    <t>2/59</t>
+  </si>
+  <si>
+    <t>2/63</t>
+  </si>
+  <si>
+    <t>3/165</t>
+  </si>
+  <si>
+    <t>4/191</t>
+  </si>
+  <si>
+    <t>2/76</t>
+  </si>
+  <si>
+    <t>2/75</t>
+  </si>
+  <si>
+    <t>3/212</t>
+  </si>
+  <si>
+    <t>2/72</t>
+  </si>
+  <si>
+    <t>3/89</t>
+  </si>
+  <si>
+    <t>2/22</t>
+  </si>
+  <si>
+    <t>2/21</t>
+  </si>
+  <si>
+    <t>3/96</t>
+  </si>
+  <si>
+    <t>RYR1;RYR2;RYR3</t>
+  </si>
+  <si>
+    <t>RYR2;DMD;TTN</t>
+  </si>
+  <si>
+    <t>SETD2;KMT2C;ARID1A;KDM6A</t>
+  </si>
+  <si>
+    <t>RYR2;SMAD4;TGFBR2</t>
+  </si>
+  <si>
+    <t>SMAD4;APC;TGFBR2</t>
+  </si>
+  <si>
+    <t>RYR1;RYR2;GNAS;RYR3</t>
+  </si>
+  <si>
+    <t>SMAD4;APC;PCDH15;FAT3;ARID1A</t>
+  </si>
+  <si>
+    <t>RYR2;GNAS;DMD;TTN</t>
   </si>
   <si>
     <t>RYR1;DMD;TTN</t>
   </si>
   <si>
-    <t>RYR1;APC;TTN</t>
+    <t>RYR1;RYR2;RYR3;TTN</t>
+  </si>
+  <si>
+    <t>RYR1;RYR2;SMAD4;RYR3</t>
+  </si>
+  <si>
+    <t>SMAD4;APC;FAT4;TGFBR2</t>
+  </si>
+  <si>
+    <t>SMAD4;APC;ARID1A;TGFBR2</t>
+  </si>
+  <si>
+    <t>SMAD4;DMD;ZFHX4;GLI3</t>
+  </si>
+  <si>
+    <t>SMAD4;APC;GNAS;TRAF1;GLI3;TGFBR2</t>
+  </si>
+  <si>
+    <t>SETD2;SMAD4;ZFHX4;KDM6A</t>
+  </si>
+  <si>
+    <t>RYR2;TTN</t>
+  </si>
+  <si>
+    <t>WT1;TRAF1;KDM6A;TGFBR2</t>
+  </si>
+  <si>
+    <t>RYR1;RYR2</t>
+  </si>
+  <si>
+    <t>SMAD4;TGFBR2</t>
+  </si>
+  <si>
+    <t>RYR1;RYR2;APC;TTN</t>
+  </si>
+  <si>
+    <t>GLI3;TGFBR2</t>
+  </si>
+  <si>
+    <t>RYR1;RYR2;APC;WT1;GLI3;TTN</t>
+  </si>
+  <si>
+    <t>SETD2;SMAD4;APOB;ARID1A;GLI3;TGFBR2</t>
+  </si>
+  <si>
+    <t>TENM3;PLXNB2;FAT4;TGFBR2</t>
+  </si>
+  <si>
+    <t>ARID1A;GLI3</t>
+  </si>
+  <si>
+    <t>SMAD4;ZFHX3;APC</t>
+  </si>
+  <si>
+    <t>RYR1;RYR2;DMD;RYR3;TTN</t>
+  </si>
+  <si>
+    <t>RNF43;SMAD4;APC</t>
+  </si>
+  <si>
+    <t>SMAD4;GNAS;ARID1A;GLI3;TGFBR2</t>
   </si>
   <si>
     <t>DMD;TTN</t>
   </si>
   <si>
-    <t>SMAD4;ZFHX3;APC</t>
-  </si>
-  <si>
-    <t>RYR1;APC;WT1;TTN</t>
-  </si>
-  <si>
-    <t>SMAD4;TRAF1</t>
-  </si>
-  <si>
-    <t>SMAD4;APC</t>
+    <t>SMAD4;APC;ZFHX4</t>
+  </si>
+  <si>
+    <t>RYR2;DMD</t>
+  </si>
+  <si>
+    <t>RNF43;SMAD4;APC;TRAF1;APOB;TGFBR2</t>
+  </si>
+  <si>
+    <t>RYR1;GNAS</t>
+  </si>
+  <si>
+    <t>SETD2;KMT2C</t>
+  </si>
+  <si>
+    <t>APC;GLI3</t>
+  </si>
+  <si>
+    <t>RYR1;SMAD4;APC;RYR3</t>
+  </si>
+  <si>
+    <t>RYR2;GNAS;GLI3</t>
   </si>
 </sst>
 </file>
@@ -247,28 +988,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="E2" t="n">
-        <v>2.345534042740431E-6</v>
+        <v>3.455370034220276E-7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01196926022010442</v>
+        <v>8.816376642313034E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>112.78195488721803</v>
+        <v>194.8051948051948</v>
       </c>
       <c r="H2" t="n">
-        <v>1461.9921930696778</v>
+        <v>2898.3440451422366</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="J2" t="n">
         <v>3.0</v>
@@ -279,28 +1020,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="E3" t="n">
-        <v>1.318133776604985E-4</v>
+        <v>5.520128583128063E-7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05641612563869335</v>
+        <v>9.389738719900835E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>29.791459781529294</v>
+        <v>170.45454545454544</v>
       </c>
       <c r="H3" t="n">
-        <v>266.16057918608703</v>
+        <v>2456.1979256072177</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="J3" t="n">
         <v>3.0</v>
@@ -311,28 +1052,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="E4" t="n">
-        <v>1.9500052932606299E-4</v>
+        <v>8.267509091485156E-7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07507520379053426</v>
+        <v>0.0010547274723462187</v>
       </c>
       <c r="G4" t="n">
-        <v>26.098303610265333</v>
+        <v>151.5151515151515</v>
       </c>
       <c r="H4" t="n">
-        <v>222.9449748128294</v>
+        <v>2122.0852099120507</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="J4" t="n">
         <v>3.0</v>
@@ -343,31 +1084,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
-        <v>3.065806191994291E-5</v>
+        <v>2.7976670467008715E-6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07822404498873434</v>
+        <v>0.0013204988460428114</v>
       </c>
       <c r="G5" t="n">
-        <v>233.91812865497076</v>
+        <v>104.8951048951049</v>
       </c>
       <c r="H5" t="n">
-        <v>2431.0210288942785</v>
+        <v>1341.2648271704895</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="J5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -375,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="E6" t="n">
-        <v>2.933904331884621E-4</v>
+        <v>3.1316337206252094E-5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09036425342204632</v>
+        <v>0.0017537148835501172</v>
       </c>
       <c r="G6" t="n">
-        <v>22.71866717152594</v>
+        <v>48.7012987012987</v>
       </c>
       <c r="H6" t="n">
-        <v>184.79378188958643</v>
+        <v>505.09921953497866</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="J6" t="n">
         <v>3.0</v>
@@ -407,31 +1148,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="E7" t="n">
-        <v>4.503720366380325E-4</v>
+        <v>3.455370034220276E-7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09637961584053896</v>
+        <v>0.0017632753284626069</v>
       </c>
       <c r="G7" t="n">
-        <v>10.713807419311639</v>
+        <v>194.8051948051948</v>
       </c>
       <c r="H7" t="n">
-        <v>82.5545634785948</v>
+        <v>2898.3440451422366</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="J7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,28 +1180,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="E8" t="n">
-        <v>6.889594623849014E-4</v>
+        <v>1.2507058569162628E-5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1326246965090935</v>
+        <v>0.0029516658223223803</v>
       </c>
       <c r="G8" t="n">
-        <v>9.569377990430622</v>
+        <v>27.972027972027973</v>
       </c>
       <c r="H8" t="n">
-        <v>69.6682117140387</v>
+        <v>315.7823045453955</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="J8" t="n">
         <v>4.0</v>
@@ -471,31 +1212,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="E9" t="n">
-        <v>5.889435697258123E-4</v>
+        <v>3.1316337206252094E-5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1389906824552917</v>
+        <v>0.0035074297671002343</v>
       </c>
       <c r="G9" t="n">
-        <v>55.40166204986149</v>
+        <v>48.7012987012987</v>
       </c>
       <c r="H9" t="n">
-        <v>412.03214325870306</v>
+        <v>505.09921953497866</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="J9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -503,31 +1244,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="E10" t="n">
-        <v>5.582623390369758E-4</v>
+        <v>3.555205435535855E-6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16022129130361207</v>
+        <v>0.003628442667507893</v>
       </c>
       <c r="G10" t="n">
-        <v>56.899004267425326</v>
+        <v>97.4025974025974</v>
       </c>
       <c r="H10" t="n">
-        <v>426.2123222999485</v>
+        <v>1222.1199066822971</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="J10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -535,30 +1276,2462 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.869184698386548E-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.006087517258794836</v>
+      </c>
+      <c r="G11" t="n">
+        <v>45.45454545454545</v>
+      </c>
+      <c r="H11" t="n">
+        <v>461.81280238066324</v>
+      </c>
+      <c r="I11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.0815977226425675E-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.009365660492869554</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18.74414245548266</v>
+      </c>
+      <c r="H12" t="n">
+        <v>181.9617248394428</v>
+      </c>
+      <c r="I12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.2851296895554653E-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.010930028009669232</v>
+      </c>
+      <c r="G13" t="n">
+        <v>64.93506493506493</v>
+      </c>
+      <c r="H13" t="n">
+        <v>731.3029757137406</v>
+      </c>
+      <c r="I13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.4888620878637693E-4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01302508512802474</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.17527795945062</v>
+      </c>
+      <c r="H14" t="n">
+        <v>65.08146450498843</v>
+      </c>
+      <c r="I14" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.736333671954476E-5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.014587907709619785</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.980019980019982</v>
+      </c>
+      <c r="H15" t="n">
+        <v>198.95428802173905</v>
+      </c>
+      <c r="I15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.1316337206252094E-5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.015980726876350444</v>
+      </c>
+      <c r="G16" t="n">
+        <v>48.7012987012987</v>
+      </c>
+      <c r="H16" t="n">
+        <v>505.09921953497866</v>
+      </c>
+      <c r="I16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.2087955032044757E-5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.016102119218360626</v>
+      </c>
+      <c r="G17" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="H17" t="n">
+        <v>584.753351955984</v>
+      </c>
+      <c r="I17" t="s">
+        <v>258</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.1316337206252094E-5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.017756363195944938</v>
+      </c>
+      <c r="G18" t="n">
+        <v>48.7012987012987</v>
+      </c>
+      <c r="H18" t="n">
+        <v>505.09921953497866</v>
+      </c>
+      <c r="I18" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.8524682407042834E-5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.018195181790392447</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22.727272727272727</v>
+      </c>
+      <c r="H19" t="n">
+        <v>237.83501809372993</v>
+      </c>
+      <c r="I19" t="s">
+        <v>267</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.312534807481682E-4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.023742024023478598</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.271400132714</v>
+      </c>
+      <c r="H20" t="n">
+        <v>111.10811054812271</v>
+      </c>
+      <c r="I20" t="s">
+        <v>268</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.1856237370962677E-4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.025060240065157308</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.202562538133007</v>
+      </c>
+      <c r="H21" t="n">
+        <v>98.25127841735672</v>
+      </c>
+      <c r="I21" t="s">
+        <v>263</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.7922441708439155E-4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02557056069483326</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11.655011655011654</v>
+      </c>
+      <c r="H22" t="n">
+        <v>91.81098366679586</v>
+      </c>
+      <c r="I22" t="s">
+        <v>263</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.17379956547085E-4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.025710605323300433</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11.363636363636363</v>
+      </c>
+      <c r="H23" t="n">
+        <v>88.42629073007222</v>
+      </c>
+      <c r="I23" t="s">
+        <v>269</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.018065359497311E-4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.025759402178752864</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.822510822510822</v>
+      </c>
+      <c r="H24" t="n">
+        <v>82.22181708990637</v>
+      </c>
+      <c r="I24" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.325672830721313E-5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.026702077467979184</v>
+      </c>
+      <c r="G25" t="n">
+        <v>36.85503685503686</v>
+      </c>
+      <c r="H25" t="n">
+        <v>350.91672457968184</v>
+      </c>
+      <c r="I25" t="s">
+        <v>259</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.522969305618629E-4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.027126863653263444</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11.883541295306001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>94.48646684758478</v>
+      </c>
+      <c r="I26" t="s">
+        <v>263</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.950631967844985E-4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.027567946460962556</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15.856236786469344</v>
+      </c>
+      <c r="H27" t="n">
+        <v>111.28884087605475</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.3777688308534417E-4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.028057672204070613</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.175230566534914</v>
+      </c>
+      <c r="H28" t="n">
+        <v>109.93646627163191</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0010103877890107668</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02829085809230147</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.145797598627786</v>
+      </c>
+      <c r="H29" t="n">
+        <v>35.492732790582046</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.025954861294954E-4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.028565013890624363</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12.368583797155225</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100.22404049073616</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.325672830721313E-5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.028756083427054508</v>
+      </c>
+      <c r="G31" t="n">
+        <v>36.85503685503686</v>
+      </c>
+      <c r="H31" t="n">
+        <v>350.91672457968184</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.651744937953645E-4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.029459218011121533</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.671179883945841</v>
+      </c>
+      <c r="H32" t="n">
+        <v>69.39464848823262</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.651631875355499E-4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.029607806862327706</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16.0427807486631</v>
+      </c>
+      <c r="H33" t="n">
+        <v>113.14319378687581</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.055399376325239E-5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.030003085847823078</v>
+      </c>
+      <c r="G34" t="n">
+        <v>151.5151515151515</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1448.3533745896575</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="n">
-        <v>3.6607797729844163E-4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.17278880528486446</v>
-      </c>
-      <c r="G11" t="n">
-        <v>70.17543859649123</v>
-      </c>
-      <c r="H11" t="n">
-        <v>555.2746803177148</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.352140144163508E-4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.032349416634319436</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.775171065493646</v>
+      </c>
+      <c r="H35" t="n">
+        <v>70.53127003967055</v>
+      </c>
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.055399376325239E-5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.032730639106716086</v>
+      </c>
+      <c r="G36" t="n">
+        <v>151.5151515151515</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1448.3533745896575</v>
+      </c>
+      <c r="I36" t="s">
+        <v>276</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5.549004274577255E-4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0327391252200058</v>
+      </c>
+      <c r="G37" t="n">
+        <v>18.6799501867995</v>
+      </c>
+      <c r="H37" t="n">
+        <v>140.03839110149093</v>
+      </c>
+      <c r="I37" t="s">
+        <v>262</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.299290459948651E-4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0330362788566196</v>
+      </c>
+      <c r="G38" t="n">
+        <v>53.475935828877</v>
+      </c>
+      <c r="H38" t="n">
+        <v>394.1124796965983</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.863766028215162E-5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.03355653202798799</v>
+      </c>
+      <c r="G39" t="n">
+        <v>129.87012987012986</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1197.9295349554316</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8.595012136372494E-5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.036786651943674274</v>
+      </c>
+      <c r="G40" t="n">
+        <v>17.152658662092623</v>
+      </c>
+      <c r="H40" t="n">
+        <v>160.57878926431152</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.3215303410538917E-4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03746538516887783</v>
+      </c>
+      <c r="G41" t="n">
+        <v>30.3030303030303</v>
+      </c>
+      <c r="H41" t="n">
+        <v>270.65302901882</v>
+      </c>
+      <c r="I41" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="J11" t="n">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.313331865142055E-4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.03942313239894063</v>
+      </c>
+      <c r="G42" t="n">
+        <v>113.63636363636363</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1015.6560290053654</v>
+      </c>
+      <c r="I42" t="s">
+        <v>279</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.313331865142055E-4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.041887078173874416</v>
+      </c>
+      <c r="G43" t="n">
+        <v>113.63636363636363</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1015.6560290053654</v>
+      </c>
+      <c r="I43" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.0803723276105308E-4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.04451996781086536</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6.939625260235947</v>
+      </c>
+      <c r="H44" t="n">
+        <v>58.83270985859326</v>
+      </c>
+      <c r="I44" t="s">
+        <v>280</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.686210753356046E-4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.04528807091776791</v>
+      </c>
+      <c r="G45" t="n">
+        <v>101.010101010101</v>
+      </c>
+      <c r="H45" t="n">
+        <v>877.5612644664726</v>
+      </c>
+      <c r="I45" t="s">
+        <v>276</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.6141629287735705E-4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.04632647605580147</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.2727272727272725</v>
+      </c>
+      <c r="H46" t="n">
+        <v>63.50199170929258</v>
+      </c>
+      <c r="I46" t="s">
+        <v>281</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.313331865142055E-4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0502349438416836</v>
+      </c>
+      <c r="G47" t="n">
+        <v>113.63636363636363</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1015.6560290053654</v>
+      </c>
+      <c r="I47" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.863766028215162E-5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.05030520674389733</v>
+      </c>
+      <c r="G48" t="n">
+        <v>129.87012987012986</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1197.9295349554316</v>
+      </c>
+      <c r="I48" t="s">
+        <v>277</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.4350777920085718E-4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.055250494992330014</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15.026296018031555</v>
+      </c>
+      <c r="H49" t="n">
+        <v>132.9695163602554</v>
+      </c>
+      <c r="I49" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.9216859965495128E-4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.058803591494415094</v>
+      </c>
+      <c r="G50" t="n">
+        <v>26.7379679144385</v>
+      </c>
+      <c r="H50" t="n">
+        <v>228.80046652562143</v>
+      </c>
+      <c r="I50" t="s">
+        <v>258</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0013741073416157364</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.06485786652426276</v>
+      </c>
+      <c r="G51" t="n">
+        <v>36.36363636363636</v>
+      </c>
+      <c r="H51" t="n">
+        <v>239.634580537701</v>
+      </c>
+      <c r="I51" t="s">
+        <v>277</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.7239833119123934E-4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.06950243420344472</v>
+      </c>
+      <c r="G52" t="n">
+        <v>12.714558169103622</v>
+      </c>
+      <c r="H52" t="n">
+        <v>104.36420991766965</v>
+      </c>
+      <c r="I52" t="s">
+        <v>282</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.809967297804287E-4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.07334187048273252</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.198347107438016</v>
+      </c>
+      <c r="H53" t="n">
+        <v>48.79784979004882</v>
+      </c>
+      <c r="I53" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9.863766028215162E-5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.075457810115846</v>
+      </c>
+      <c r="G54" t="n">
+        <v>129.87012987012986</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1197.9295349554316</v>
+      </c>
+      <c r="I54" t="s">
+        <v>277</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.4315797227198235E-4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.08338738726209172</v>
+      </c>
+      <c r="G55" t="n">
+        <v>21.994134897360702</v>
+      </c>
+      <c r="H55" t="n">
+        <v>175.4542446392393</v>
+      </c>
+      <c r="I55" t="s">
+        <v>259</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0021121044254828946</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09062848080253876</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.325513196480937</v>
+      </c>
+      <c r="H56" t="n">
+        <v>180.64722787321068</v>
+      </c>
+      <c r="I56" t="s">
+        <v>283</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.003532696450201508</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0906725422218387</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.810333551340745</v>
+      </c>
+      <c r="H57" t="n">
+        <v>55.38613962775181</v>
+      </c>
+      <c r="I57" t="s">
+        <v>284</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.004291771436945649</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.10168196942917383</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.151921903599755</v>
+      </c>
+      <c r="H58" t="n">
+        <v>49.88763614008148</v>
+      </c>
+      <c r="I58" t="s">
+        <v>262</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.5056312176119863E-4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.10451016410669985</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20.053475935828878</v>
+      </c>
+      <c r="H59" t="n">
+        <v>154.5122802640475</v>
+      </c>
+      <c r="I59" t="s">
+        <v>258</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.838463802105367E-5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.10462849617221212</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11.595547309833023</v>
+      </c>
+      <c r="H60" t="n">
+        <v>111.2055003350583</v>
+      </c>
+      <c r="I60" t="s">
+        <v>285</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0018492706871180353</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1095692882117436</v>
+      </c>
+      <c r="G61" t="n">
+        <v>31.34796238244514</v>
+      </c>
+      <c r="H61" t="n">
+        <v>197.27159689021096</v>
+      </c>
+      <c r="I61" t="s">
+        <v>277</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.005053567277296443</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.11117848010052175</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8.63060989643268</v>
+      </c>
+      <c r="H62" t="n">
+        <v>45.63573843666363</v>
+      </c>
+      <c r="I62" t="s">
+        <v>286</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0012663399102104409</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.12188521635775494</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.142506142506143</v>
+      </c>
+      <c r="H63" t="n">
+        <v>40.98049447063942</v>
+      </c>
+      <c r="I63" t="s">
+        <v>287</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.003162118794538195</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.124376672585169</v>
+      </c>
+      <c r="G64" t="n">
+        <v>23.923444976076553</v>
+      </c>
+      <c r="H64" t="n">
+        <v>137.71562132704307</v>
+      </c>
+      <c r="I64" t="s">
+        <v>288</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0016032228519557792</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.12665460530450656</v>
+      </c>
+      <c r="G65" t="n">
+        <v>33.67003367003367</v>
+      </c>
+      <c r="H65" t="n">
+        <v>216.69156206097244</v>
+      </c>
+      <c r="I65" t="s">
+        <v>277</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.003677302230169017</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1335143578953674</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.671179883945841</v>
+      </c>
+      <c r="H66" t="n">
+        <v>54.21253273956365</v>
+      </c>
+      <c r="I66" t="s">
+        <v>289</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6.299290459948651E-4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.13393866340465818</v>
+      </c>
+      <c r="G67" t="n">
+        <v>53.475935828877</v>
+      </c>
+      <c r="H67" t="n">
+        <v>394.1124796965983</v>
+      </c>
+      <c r="I67" t="s">
+        <v>276</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.001162071491037059</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1377054716878915</v>
+      </c>
+      <c r="G68" t="n">
+        <v>39.52569169960474</v>
+      </c>
+      <c r="H68" t="n">
+        <v>267.09688135639016</v>
+      </c>
+      <c r="I68" t="s">
+        <v>277</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.299290459948651E-4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1397620835526868</v>
+      </c>
+      <c r="G69" t="n">
+        <v>53.475935828877</v>
+      </c>
+      <c r="H69" t="n">
+        <v>394.1124796965983</v>
+      </c>
+      <c r="I69" t="s">
+        <v>290</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.001112559853126576</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.14277851448457726</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.05050505050505</v>
+      </c>
+      <c r="H70" t="n">
+        <v>34.34894820610032</v>
+      </c>
+      <c r="I70" t="s">
+        <v>291</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.007721434028447584</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.148637605047616</v>
+      </c>
+      <c r="G71" t="n">
+        <v>15.15151515151515</v>
+      </c>
+      <c r="H71" t="n">
+        <v>73.69326026084114</v>
+      </c>
+      <c r="I71" t="s">
+        <v>292</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.007474433590449311</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.15347503639055918</v>
+      </c>
+      <c r="G72" t="n">
+        <v>15.408320493066254</v>
+      </c>
+      <c r="H72" t="n">
+        <v>75.44325017610639</v>
+      </c>
+      <c r="I72" t="s">
+        <v>293</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.008484313652195721</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.15371580028684015</v>
+      </c>
+      <c r="G73" t="n">
+        <v>14.430014430014428</v>
+      </c>
+      <c r="H73" t="n">
+        <v>68.82447724551868</v>
+      </c>
+      <c r="I73" t="s">
+        <v>294</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0056990625786575025</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.15957375220241007</v>
+      </c>
+      <c r="G74" t="n">
+        <v>8.264462809917354</v>
+      </c>
+      <c r="H74" t="n">
+        <v>42.706227913647034</v>
+      </c>
+      <c r="I74" t="s">
+        <v>258</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" t="n">
+        <v>8.11722130882201E-4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.16568872135567486</v>
+      </c>
+      <c r="G75" t="n">
+        <v>9.51927653498334</v>
+      </c>
+      <c r="H75" t="n">
+        <v>67.74252717481738</v>
+      </c>
+      <c r="I75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.012159729830673252</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.17023621762942553</v>
+      </c>
+      <c r="G76" t="n">
+        <v>11.961722488038276</v>
+      </c>
+      <c r="H76" t="n">
+        <v>52.74671794932059</v>
+      </c>
+      <c r="I76" t="s">
+        <v>277</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.011856165694245737</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.17389043018227082</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12.121212121212121</v>
+      </c>
+      <c r="H77" t="n">
+        <v>53.756451332915454</v>
+      </c>
+      <c r="I77" t="s">
+        <v>277</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01130077184513828</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1740318864151295</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6.432246998284734</v>
+      </c>
+      <c r="H78" t="n">
+        <v>28.835018765332467</v>
+      </c>
+      <c r="I78" t="s">
+        <v>296</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.010966025744589191</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.17776504891228795</v>
+      </c>
+      <c r="G79" t="n">
+        <v>12.626262626262625</v>
+      </c>
+      <c r="H79" t="n">
+        <v>56.98173427183574</v>
+      </c>
+      <c r="I79" t="s">
+        <v>290</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.886786497073237E-4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.18686026479468418</v>
+      </c>
+      <c r="G80" t="n">
+        <v>15.321756894790601</v>
+      </c>
+      <c r="H80" t="n">
+        <v>106.01339944232953</v>
+      </c>
+      <c r="I80" t="s">
+        <v>258</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0010625047313416714</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.18696419462194996</v>
+      </c>
+      <c r="G81" t="n">
+        <v>41.32231404958677</v>
+      </c>
+      <c r="H81" t="n">
+        <v>282.9390993449653</v>
+      </c>
+      <c r="I81" t="s">
+        <v>277</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.010966025744589191</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1876408849629706</v>
+      </c>
+      <c r="G82" t="n">
+        <v>12.626262626262625</v>
+      </c>
+      <c r="H82" t="n">
+        <v>56.98173427183574</v>
+      </c>
+      <c r="I82" t="s">
+        <v>277</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9.672635533368654E-4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.1898440735645394</v>
+      </c>
+      <c r="G83" t="n">
+        <v>43.290043290043286</v>
+      </c>
+      <c r="H83" t="n">
+        <v>300.47790269455294</v>
+      </c>
+      <c r="I83" t="s">
+        <v>277</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.001162071491037059</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.19129196189555203</v>
+      </c>
+      <c r="G84" t="n">
+        <v>39.52569169960474</v>
+      </c>
+      <c r="H84" t="n">
+        <v>267.09688135639016</v>
+      </c>
+      <c r="I84" t="s">
+        <v>290</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0010625047313416714</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1936414872870196</v>
+      </c>
+      <c r="G85" t="n">
+        <v>41.32231404958677</v>
+      </c>
+      <c r="H85" t="n">
+        <v>282.9390993449653</v>
+      </c>
+      <c r="I85" t="s">
+        <v>290</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0012306518518731089</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.19625051250338982</v>
+      </c>
+      <c r="G86" t="n">
+        <v>14.204545454545453</v>
+      </c>
+      <c r="H86" t="n">
+        <v>95.17345581115103</v>
+      </c>
+      <c r="I86" t="s">
+        <v>258</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.001162071491037059</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.19766836062540377</v>
+      </c>
+      <c r="G87" t="n">
+        <v>39.52569169960474</v>
+      </c>
+      <c r="H87" t="n">
+        <v>267.09688135639016</v>
+      </c>
+      <c r="I87" t="s">
+        <v>276</v>
+      </c>
+      <c r="J87" t="n">
         <v>2.0</v>
       </c>
     </row>
